--- a/example6_cor.xlsx
+++ b/example6_cor.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="568">
   <si>
     <t>label</t>
   </si>
@@ -866,6 +866,858 @@
   </si>
   <si>
     <t>x851_F</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>adductName</t>
+  </si>
+  <si>
+    <t>[M-H]-</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-2-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>C13-label-5</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-3-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-4-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-5-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-2</t>
+  </si>
+  <si>
+    <t>C13N15-label-2-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-3-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-5-2</t>
+  </si>
+  <si>
+    <t>C13N15-label-6-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-6-2</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>N15-label-2</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>C13-label-5</t>
+  </si>
+  <si>
+    <t>C13-label-6</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>D2-label-3</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>Taurine</t>
+  </si>
+  <si>
+    <t>L-Valine</t>
+  </si>
+  <si>
+    <t>L-Cystine</t>
+  </si>
+  <si>
+    <t>1,5-Anhydroglucitol</t>
+  </si>
+  <si>
+    <t>Aminoadipic acid</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>Taurine</t>
+  </si>
+  <si>
+    <t>L-Valine</t>
+  </si>
+  <si>
+    <t>L-Cystine</t>
+  </si>
+  <si>
+    <t>1,5-Anhydroglucitol</t>
+  </si>
+  <si>
+    <t>Aminoadipic acid</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C2H7NO3S</t>
+  </si>
+  <si>
+    <t>C5H11NO2</t>
+  </si>
+  <si>
+    <t>C6H12N2O4S2</t>
+  </si>
+  <si>
+    <t>C6H12O5</t>
+  </si>
+  <si>
+    <t>C6H11NO4</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>841_F</t>
+  </si>
+  <si>
+    <t>841_R</t>
+  </si>
+  <si>
+    <t>842_F</t>
+  </si>
+  <si>
+    <t>842_R</t>
+  </si>
+  <si>
+    <t>843_F</t>
+  </si>
+  <si>
+    <t>843_R</t>
+  </si>
+  <si>
+    <t>844_F</t>
+  </si>
+  <si>
+    <t>844_R</t>
+  </si>
+  <si>
+    <t>845_F</t>
+  </si>
+  <si>
+    <t>845_R</t>
+  </si>
+  <si>
+    <t>846_F</t>
+  </si>
+  <si>
+    <t>846_R</t>
+  </si>
+  <si>
+    <t>847_F</t>
+  </si>
+  <si>
+    <t>848_F</t>
+  </si>
+  <si>
+    <t>848_R</t>
+  </si>
+  <si>
+    <t>849_F</t>
+  </si>
+  <si>
+    <t>850_F</t>
+  </si>
+  <si>
+    <t>851_F</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>adductName</t>
+  </si>
+  <si>
+    <t>[M-H]-</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-2-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>C13-label-5</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-3-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-4-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-5-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-2</t>
+  </si>
+  <si>
+    <t>C13N15-label-2-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-3-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-5-2</t>
+  </si>
+  <si>
+    <t>C13N15-label-6-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-6-2</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>N15-label-2</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>C13-label-5</t>
+  </si>
+  <si>
+    <t>C13-label-6</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>D2-label-3</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>Taurine</t>
+  </si>
+  <si>
+    <t>L-Valine</t>
+  </si>
+  <si>
+    <t>L-Cystine</t>
+  </si>
+  <si>
+    <t>1,5-Anhydroglucitol</t>
+  </si>
+  <si>
+    <t>Aminoadipic acid</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>Taurine</t>
+  </si>
+  <si>
+    <t>L-Valine</t>
+  </si>
+  <si>
+    <t>L-Cystine</t>
+  </si>
+  <si>
+    <t>1,5-Anhydroglucitol</t>
+  </si>
+  <si>
+    <t>Aminoadipic acid</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C2H7NO3S</t>
+  </si>
+  <si>
+    <t>C5H11NO2</t>
+  </si>
+  <si>
+    <t>C6H12N2O4S2</t>
+  </si>
+  <si>
+    <t>C6H12O5</t>
+  </si>
+  <si>
+    <t>C6H11NO4</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>841_F</t>
+  </si>
+  <si>
+    <t>841_R</t>
+  </si>
+  <si>
+    <t>842_F</t>
+  </si>
+  <si>
+    <t>842_R</t>
+  </si>
+  <si>
+    <t>843_F</t>
+  </si>
+  <si>
+    <t>843_R</t>
+  </si>
+  <si>
+    <t>844_F</t>
+  </si>
+  <si>
+    <t>844_R</t>
+  </si>
+  <si>
+    <t>845_F</t>
+  </si>
+  <si>
+    <t>845_R</t>
+  </si>
+  <si>
+    <t>846_F</t>
+  </si>
+  <si>
+    <t>846_R</t>
+  </si>
+  <si>
+    <t>847_F</t>
+  </si>
+  <si>
+    <t>848_F</t>
+  </si>
+  <si>
+    <t>848_R</t>
+  </si>
+  <si>
+    <t>849_F</t>
+  </si>
+  <si>
+    <t>850_F</t>
+  </si>
+  <si>
+    <t>851_F</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>adductName</t>
+  </si>
+  <si>
+    <t>[M-H]-</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-2-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>C13-label-5</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-3-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-4-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-5-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-2</t>
+  </si>
+  <si>
+    <t>C13N15-label-2-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-3-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-5-2</t>
+  </si>
+  <si>
+    <t>C13N15-label-6-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-6-2</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>N15-label-2</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>C13-label-5</t>
+  </si>
+  <si>
+    <t>C13-label-6</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>D2-label-3</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>Taurine</t>
+  </si>
+  <si>
+    <t>L-Valine</t>
+  </si>
+  <si>
+    <t>L-Cystine</t>
+  </si>
+  <si>
+    <t>1,5-Anhydroglucitol</t>
+  </si>
+  <si>
+    <t>Aminoadipic acid</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>Taurine</t>
+  </si>
+  <si>
+    <t>L-Valine</t>
+  </si>
+  <si>
+    <t>L-Cystine</t>
+  </si>
+  <si>
+    <t>1,5-Anhydroglucitol</t>
+  </si>
+  <si>
+    <t>Aminoadipic acid</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C2H7NO3S</t>
+  </si>
+  <si>
+    <t>C5H11NO2</t>
+  </si>
+  <si>
+    <t>C6H12N2O4S2</t>
+  </si>
+  <si>
+    <t>C6H12O5</t>
+  </si>
+  <si>
+    <t>C6H11NO4</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>841_F</t>
+  </si>
+  <si>
+    <t>841_R</t>
+  </si>
+  <si>
+    <t>842_F</t>
+  </si>
+  <si>
+    <t>842_R</t>
+  </si>
+  <si>
+    <t>843_F</t>
+  </si>
+  <si>
+    <t>843_R</t>
+  </si>
+  <si>
+    <t>844_F</t>
+  </si>
+  <si>
+    <t>844_R</t>
+  </si>
+  <si>
+    <t>845_F</t>
+  </si>
+  <si>
+    <t>845_R</t>
+  </si>
+  <si>
+    <t>846_F</t>
+  </si>
+  <si>
+    <t>846_R</t>
+  </si>
+  <si>
+    <t>847_F</t>
+  </si>
+  <si>
+    <t>848_F</t>
+  </si>
+  <si>
+    <t>848_R</t>
+  </si>
+  <si>
+    <t>849_F</t>
+  </si>
+  <si>
+    <t>850_F</t>
+  </si>
+  <si>
+    <t>851_F</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Taurine</t>
+  </si>
+  <si>
+    <t>L-Valine</t>
+  </si>
+  <si>
+    <t>L-Cystine</t>
+  </si>
+  <si>
+    <t>1,5-Anhydroglucitol</t>
+  </si>
+  <si>
+    <t>Aminoadipic acid</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C2H7NO3S</t>
+  </si>
+  <si>
+    <t>C5H11NO2</t>
+  </si>
+  <si>
+    <t>C6H12N2O4S2</t>
+  </si>
+  <si>
+    <t>C6H12O5</t>
+  </si>
+  <si>
+    <t>C6H11NO4</t>
+  </si>
+  <si>
+    <t>841_F</t>
+  </si>
+  <si>
+    <t>841_R</t>
+  </si>
+  <si>
+    <t>842_F</t>
+  </si>
+  <si>
+    <t>842_R</t>
+  </si>
+  <si>
+    <t>843_F</t>
+  </si>
+  <si>
+    <t>843_R</t>
+  </si>
+  <si>
+    <t>844_F</t>
+  </si>
+  <si>
+    <t>844_R</t>
+  </si>
+  <si>
+    <t>845_F</t>
+  </si>
+  <si>
+    <t>845_R</t>
+  </si>
+  <si>
+    <t>846_F</t>
+  </si>
+  <si>
+    <t>846_R</t>
+  </si>
+  <si>
+    <t>847_F</t>
+  </si>
+  <si>
+    <t>848_F</t>
+  </si>
+  <si>
+    <t>848_R</t>
+  </si>
+  <si>
+    <t>849_F</t>
+  </si>
+  <si>
+    <t>850_F</t>
+  </si>
+  <si>
+    <t>851_F</t>
   </si>
   <si>
     <t>blank</t>
@@ -917,19 +1769,19 @@
   <dimension ref="A1:AH35"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.046875" customWidth="true"/>
-    <col min="2" max="2" width="11.93359375" customWidth="true"/>
-    <col min="3" max="3" width="7.37890625" customWidth="true"/>
-    <col min="4" max="4" width="14.046875" customWidth="true"/>
+    <col min="1" max="1" width="5.5703125" customWidth="true"/>
+    <col min="2" max="2" width="12.85546875" customWidth="true"/>
+    <col min="3" max="3" width="8" customWidth="true"/>
+    <col min="4" max="4" width="15.140625" customWidth="true"/>
     <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.37890625" customWidth="true"/>
-    <col min="8" max="8" width="11.6015625" customWidth="true"/>
-    <col min="9" max="9" width="15.48828125" customWidth="true"/>
-    <col min="10" max="10" width="16.93359375" customWidth="true"/>
-    <col min="11" max="11" width="16.93359375" customWidth="true"/>
-    <col min="12" max="12" width="13.046875" customWidth="true"/>
-    <col min="13" max="13" width="13.37890625" customWidth="true"/>
+    <col min="6" max="6" width="7" customWidth="true"/>
+    <col min="7" max="7" width="11.28515625" customWidth="true"/>
+    <col min="8" max="8" width="12.42578125" customWidth="true"/>
+    <col min="9" max="9" width="16.28515625" customWidth="true"/>
+    <col min="10" max="10" width="18.5703125" customWidth="true"/>
+    <col min="11" max="11" width="18.5703125" customWidth="true"/>
+    <col min="12" max="12" width="13.42578125" customWidth="true"/>
+    <col min="13" max="13" width="14.5703125" customWidth="true"/>
     <col min="14" max="14" width="8.7109375" customWidth="true"/>
     <col min="15" max="15" width="10.7109375" customWidth="true"/>
     <col min="16" max="16" width="10.7109375" customWidth="true"/>
@@ -955,106 +1807,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>290</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>291</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>9</v>
+        <v>293</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>50</v>
+        <v>334</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>56</v>
+        <v>340</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>62</v>
+        <v>346</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>63</v>
+        <v>347</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>64</v>
+        <v>348</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>65</v>
+        <v>349</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>66</v>
+        <v>350</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>67</v>
+        <v>351</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>68</v>
+        <v>352</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>69</v>
+        <v>353</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>70</v>
+        <v>354</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>71</v>
+        <v>355</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>72</v>
+        <v>356</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>73</v>
+        <v>357</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>83</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2">
@@ -1078,19 +1930,19 @@
         <v>0.76763599999999999</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>8</v>
+        <v>292</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>294</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>51</v>
+        <v>335</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>57</v>
+        <v>341</v>
       </c>
       <c r="M2" s="0">
         <v>0.318</v>
@@ -1181,16 +2033,16 @@
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>51</v>
+        <v>335</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>57</v>
+        <v>341</v>
       </c>
       <c r="M3" s="0">
         <v>0.32000000000000001</v>
@@ -1281,16 +2133,16 @@
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0" t="s">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>51</v>
+        <v>335</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>57</v>
+        <v>341</v>
       </c>
       <c r="M4" s="0">
         <v>0.32100000000000001</v>
@@ -1381,16 +2233,16 @@
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0" t="s">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>51</v>
+        <v>335</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>57</v>
+        <v>341</v>
       </c>
       <c r="M5" s="0">
         <v>0.32900000000000001</v>
@@ -1481,16 +2333,16 @@
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0" t="s">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>335</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>57</v>
+        <v>341</v>
       </c>
       <c r="M6" s="0">
         <v>0.33600000000000002</v>
@@ -1581,16 +2433,16 @@
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>51</v>
+        <v>335</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>57</v>
+        <v>341</v>
       </c>
       <c r="M7" s="0">
         <v>0.33200000000000002</v>
@@ -1680,19 +2532,19 @@
         <v>0.63111200000000001</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>8</v>
+        <v>292</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="M8" s="0">
         <v>0.27800000000000002</v>
@@ -1783,16 +2635,16 @@
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="M9" s="0">
         <v>0.27900000000000003</v>
@@ -1883,16 +2735,16 @@
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0" t="s">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="M10" s="0">
         <v>0.29699999999999999</v>
@@ -1983,16 +2835,16 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0" t="s">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="M11" s="0">
         <v>0.254</v>
@@ -2083,16 +2935,16 @@
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0" t="s">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="M12" s="0">
         <v>0.28399999999999997</v>
@@ -2183,16 +3035,16 @@
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0" t="s">
-        <v>21</v>
+        <v>305</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="M13" s="0">
         <v>0.29199999999999998</v>
@@ -2283,16 +3135,16 @@
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0" t="s">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="M14" s="0">
         <v>0.25900000000000001</v>
@@ -2383,16 +3235,16 @@
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0" t="s">
-        <v>23</v>
+        <v>307</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="M15" s="0">
         <v>0.33600000000000002</v>
@@ -2483,16 +3335,16 @@
       </c>
       <c r="H16" s="0"/>
       <c r="I16" s="0" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="M16" s="0">
         <v>0.28499999999999998</v>
@@ -2583,16 +3435,16 @@
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0" t="s">
-        <v>25</v>
+        <v>309</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="M17" s="0">
         <v>0.28599999999999998</v>
@@ -2683,16 +3535,16 @@
       </c>
       <c r="H18" s="0"/>
       <c r="I18" s="0" t="s">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="M18" s="0">
         <v>0.27800000000000002</v>
@@ -2782,19 +3634,19 @@
         <v>0.63627999999999996</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>8</v>
+        <v>292</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>27</v>
+        <v>311</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="M19" s="0">
         <v>0.35599999999999998</v>
@@ -2885,16 +3737,16 @@
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0" t="s">
-        <v>28</v>
+        <v>312</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="M20" s="0">
         <v>0.34699999999999998</v>
@@ -2985,16 +3837,16 @@
       </c>
       <c r="H21" s="0"/>
       <c r="I21" s="0" t="s">
-        <v>29</v>
+        <v>313</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="M21" s="0">
         <v>0.42199999999999999</v>
@@ -3085,16 +3937,16 @@
       </c>
       <c r="H22" s="0"/>
       <c r="I22" s="0" t="s">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="M22" s="0">
         <v>0.35299999999999998</v>
@@ -3185,16 +4037,16 @@
       </c>
       <c r="H23" s="0"/>
       <c r="I23" s="0" t="s">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="M23" s="0">
         <v>0.34399999999999997</v>
@@ -3285,16 +4137,16 @@
       </c>
       <c r="H24" s="0"/>
       <c r="I24" s="0" t="s">
-        <v>32</v>
+        <v>316</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="M24" s="0">
         <v>0.36599999999999999</v>
@@ -3385,16 +4237,16 @@
       </c>
       <c r="H25" s="0"/>
       <c r="I25" s="0" t="s">
-        <v>33</v>
+        <v>317</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="M25" s="0">
         <v>0.40799999999999997</v>
@@ -3485,16 +4337,16 @@
       </c>
       <c r="H26" s="0"/>
       <c r="I26" s="0" t="s">
-        <v>34</v>
+        <v>318</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="M26" s="0">
         <v>0.39100000000000001</v>
@@ -3585,16 +4437,16 @@
       </c>
       <c r="H27" s="0"/>
       <c r="I27" s="0" t="s">
-        <v>35</v>
+        <v>319</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="M27" s="0">
         <v>0.33600000000000002</v>
@@ -3685,16 +4537,16 @@
       </c>
       <c r="H28" s="0"/>
       <c r="I28" s="0" t="s">
-        <v>36</v>
+        <v>320</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="M28" s="0">
         <v>0.33100000000000002</v>
@@ -3784,19 +4636,19 @@
         <v>0.74177099999999996</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>8</v>
+        <v>292</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>48</v>
+        <v>332</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="M29" s="0">
         <v>0.19400000000000001</v>
@@ -3887,16 +4739,16 @@
       </c>
       <c r="H30" s="0"/>
       <c r="I30" s="0" t="s">
-        <v>38</v>
+        <v>322</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>48</v>
+        <v>332</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="M30" s="0">
         <v>0.193</v>
@@ -3987,16 +4839,16 @@
       </c>
       <c r="H31" s="0"/>
       <c r="I31" s="0" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>48</v>
+        <v>332</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="M31" s="0">
         <v>0.20100000000000001</v>
@@ -4087,16 +4939,16 @@
       </c>
       <c r="H32" s="0"/>
       <c r="I32" s="0" t="s">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>48</v>
+        <v>332</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="M32" s="0">
         <v>0.19400000000000001</v>
@@ -4187,16 +5039,16 @@
       </c>
       <c r="H33" s="0"/>
       <c r="I33" s="0" t="s">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>48</v>
+        <v>332</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="M33" s="0">
         <v>0.20200000000000001</v>
@@ -4286,19 +5138,19 @@
         <v>0.58975999999999995</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>8</v>
+        <v>292</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>42</v>
+        <v>326</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>49</v>
+        <v>333</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>55</v>
+        <v>339</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>61</v>
+        <v>345</v>
       </c>
       <c r="M34" s="0">
         <v>0.14099999999999999</v>
@@ -4389,16 +5241,16 @@
       </c>
       <c r="H35" s="0"/>
       <c r="I35" s="0" t="s">
-        <v>43</v>
+        <v>327</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>49</v>
+        <v>333</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>55</v>
+        <v>339</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>61</v>
+        <v>345</v>
       </c>
       <c r="M35" s="0">
         <v>0.159</v>
@@ -4476,19 +5328,19 @@
   <dimension ref="A1:AH35"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.046875" customWidth="true"/>
-    <col min="2" max="2" width="11.93359375" customWidth="true"/>
-    <col min="3" max="3" width="7.37890625" customWidth="true"/>
-    <col min="4" max="4" width="14.046875" customWidth="true"/>
+    <col min="1" max="1" width="5.5703125" customWidth="true"/>
+    <col min="2" max="2" width="12.85546875" customWidth="true"/>
+    <col min="3" max="3" width="8" customWidth="true"/>
+    <col min="4" max="4" width="15.140625" customWidth="true"/>
     <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.37890625" customWidth="true"/>
-    <col min="8" max="8" width="11.6015625" customWidth="true"/>
-    <col min="9" max="9" width="15.48828125" customWidth="true"/>
-    <col min="10" max="10" width="16.93359375" customWidth="true"/>
-    <col min="11" max="11" width="16.93359375" customWidth="true"/>
-    <col min="12" max="12" width="13.046875" customWidth="true"/>
-    <col min="13" max="13" width="13.37890625" customWidth="true"/>
+    <col min="6" max="6" width="7" customWidth="true"/>
+    <col min="7" max="7" width="11.28515625" customWidth="true"/>
+    <col min="8" max="8" width="12.42578125" customWidth="true"/>
+    <col min="9" max="9" width="16.28515625" customWidth="true"/>
+    <col min="10" max="10" width="18.5703125" customWidth="true"/>
+    <col min="11" max="11" width="18.5703125" customWidth="true"/>
+    <col min="12" max="12" width="13.42578125" customWidth="true"/>
+    <col min="13" max="13" width="14.5703125" customWidth="true"/>
     <col min="14" max="14" width="8.7109375" customWidth="true"/>
     <col min="15" max="15" width="10.7109375" customWidth="true"/>
     <col min="16" max="16" width="15.7109375" customWidth="true"/>
@@ -4514,106 +5366,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>368</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>85</v>
+        <v>369</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>86</v>
+        <v>370</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>87</v>
+        <v>371</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>88</v>
+        <v>372</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>89</v>
+        <v>373</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>374</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>375</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>93</v>
+        <v>377</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>128</v>
+        <v>412</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>134</v>
+        <v>418</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>140</v>
+        <v>424</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>146</v>
+        <v>430</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>147</v>
+        <v>431</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>148</v>
+        <v>432</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>149</v>
+        <v>433</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>150</v>
+        <v>434</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>151</v>
+        <v>435</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>152</v>
+        <v>436</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>153</v>
+        <v>437</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>154</v>
+        <v>438</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>155</v>
+        <v>439</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>156</v>
+        <v>440</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>157</v>
+        <v>441</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>158</v>
+        <v>442</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>159</v>
+        <v>443</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>160</v>
+        <v>444</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>161</v>
+        <v>445</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>162</v>
+        <v>446</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>163</v>
+        <v>447</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>164</v>
+        <v>448</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>165</v>
+        <v>449</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>166</v>
+        <v>450</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>167</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2">
@@ -4637,19 +5489,19 @@
         <v>0.76763599999999999</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>92</v>
+        <v>376</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>94</v>
+        <v>378</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>129</v>
+        <v>413</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>135</v>
+        <v>419</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>141</v>
+        <v>425</v>
       </c>
       <c r="M2" s="0">
         <v>0.318</v>
@@ -4740,16 +5592,16 @@
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0" t="s">
-        <v>95</v>
+        <v>379</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>129</v>
+        <v>413</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>135</v>
+        <v>419</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>141</v>
+        <v>425</v>
       </c>
       <c r="M3" s="0">
         <v>0.32000000000000001</v>
@@ -4840,16 +5692,16 @@
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0" t="s">
-        <v>96</v>
+        <v>380</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>129</v>
+        <v>413</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>135</v>
+        <v>419</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>141</v>
+        <v>425</v>
       </c>
       <c r="M4" s="0">
         <v>0.32100000000000001</v>
@@ -4940,16 +5792,16 @@
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0" t="s">
-        <v>97</v>
+        <v>381</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>129</v>
+        <v>413</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>135</v>
+        <v>419</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>141</v>
+        <v>425</v>
       </c>
       <c r="M5" s="0">
         <v>0.32900000000000001</v>
@@ -5040,16 +5892,16 @@
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0" t="s">
-        <v>98</v>
+        <v>382</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>129</v>
+        <v>413</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>135</v>
+        <v>419</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>141</v>
+        <v>425</v>
       </c>
       <c r="M6" s="0">
         <v>0.33600000000000002</v>
@@ -5140,16 +5992,16 @@
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0" t="s">
-        <v>99</v>
+        <v>383</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>129</v>
+        <v>413</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>135</v>
+        <v>419</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>141</v>
+        <v>425</v>
       </c>
       <c r="M7" s="0">
         <v>0.33200000000000002</v>
@@ -5239,19 +6091,19 @@
         <v>0.63111200000000001</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>92</v>
+        <v>376</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>100</v>
+        <v>384</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>130</v>
+        <v>414</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="M8" s="0">
         <v>0.27800000000000002</v>
@@ -5342,16 +6194,16 @@
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0" t="s">
-        <v>101</v>
+        <v>385</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>130</v>
+        <v>414</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="M9" s="0">
         <v>0.27900000000000003</v>
@@ -5442,16 +6294,16 @@
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0" t="s">
-        <v>102</v>
+        <v>386</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>130</v>
+        <v>414</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="M10" s="0">
         <v>0.29699999999999999</v>
@@ -5542,16 +6394,16 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0" t="s">
-        <v>103</v>
+        <v>387</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>130</v>
+        <v>414</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="M11" s="0">
         <v>0.254</v>
@@ -5642,16 +6494,16 @@
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0" t="s">
-        <v>104</v>
+        <v>388</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>130</v>
+        <v>414</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="M12" s="0">
         <v>0.28399999999999997</v>
@@ -5742,16 +6594,16 @@
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0" t="s">
-        <v>105</v>
+        <v>389</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>130</v>
+        <v>414</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="M13" s="0">
         <v>0.29199999999999998</v>
@@ -5842,16 +6694,16 @@
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0" t="s">
-        <v>106</v>
+        <v>390</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>130</v>
+        <v>414</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="M14" s="0">
         <v>0.25900000000000001</v>
@@ -5942,16 +6794,16 @@
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0" t="s">
-        <v>107</v>
+        <v>391</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>130</v>
+        <v>414</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="M15" s="0">
         <v>0.33600000000000002</v>
@@ -6042,16 +6894,16 @@
       </c>
       <c r="H16" s="0"/>
       <c r="I16" s="0" t="s">
-        <v>108</v>
+        <v>392</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>130</v>
+        <v>414</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="M16" s="0">
         <v>0.28499999999999998</v>
@@ -6142,16 +6994,16 @@
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0" t="s">
-        <v>109</v>
+        <v>393</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>130</v>
+        <v>414</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="M17" s="0">
         <v>0.28599999999999998</v>
@@ -6242,16 +7094,16 @@
       </c>
       <c r="H18" s="0"/>
       <c r="I18" s="0" t="s">
-        <v>110</v>
+        <v>394</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>130</v>
+        <v>414</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="M18" s="0">
         <v>0.27800000000000002</v>
@@ -6341,19 +7193,19 @@
         <v>0.63627999999999996</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>92</v>
+        <v>376</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>111</v>
+        <v>395</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>143</v>
+        <v>427</v>
       </c>
       <c r="M19" s="0">
         <v>0.35599999999999998</v>
@@ -6444,16 +7296,16 @@
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0" t="s">
-        <v>112</v>
+        <v>396</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>143</v>
+        <v>427</v>
       </c>
       <c r="M20" s="0">
         <v>0.34699999999999998</v>
@@ -6544,16 +7396,16 @@
       </c>
       <c r="H21" s="0"/>
       <c r="I21" s="0" t="s">
-        <v>113</v>
+        <v>397</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>143</v>
+        <v>427</v>
       </c>
       <c r="M21" s="0">
         <v>0.42199999999999999</v>
@@ -6644,16 +7496,16 @@
       </c>
       <c r="H22" s="0"/>
       <c r="I22" s="0" t="s">
-        <v>114</v>
+        <v>398</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>143</v>
+        <v>427</v>
       </c>
       <c r="M22" s="0">
         <v>0.35299999999999998</v>
@@ -6744,16 +7596,16 @@
       </c>
       <c r="H23" s="0"/>
       <c r="I23" s="0" t="s">
-        <v>115</v>
+        <v>399</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>143</v>
+        <v>427</v>
       </c>
       <c r="M23" s="0">
         <v>0.34399999999999997</v>
@@ -6844,16 +7696,16 @@
       </c>
       <c r="H24" s="0"/>
       <c r="I24" s="0" t="s">
-        <v>116</v>
+        <v>400</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>143</v>
+        <v>427</v>
       </c>
       <c r="M24" s="0">
         <v>0.36599999999999999</v>
@@ -6944,16 +7796,16 @@
       </c>
       <c r="H25" s="0"/>
       <c r="I25" s="0" t="s">
-        <v>117</v>
+        <v>401</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>143</v>
+        <v>427</v>
       </c>
       <c r="M25" s="0">
         <v>0.40799999999999997</v>
@@ -7044,16 +7896,16 @@
       </c>
       <c r="H26" s="0"/>
       <c r="I26" s="0" t="s">
-        <v>118</v>
+        <v>402</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>143</v>
+        <v>427</v>
       </c>
       <c r="M26" s="0">
         <v>0.39100000000000001</v>
@@ -7144,16 +7996,16 @@
       </c>
       <c r="H27" s="0"/>
       <c r="I27" s="0" t="s">
-        <v>119</v>
+        <v>403</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>143</v>
+        <v>427</v>
       </c>
       <c r="M27" s="0">
         <v>0.33600000000000002</v>
@@ -7244,16 +8096,16 @@
       </c>
       <c r="H28" s="0"/>
       <c r="I28" s="0" t="s">
-        <v>120</v>
+        <v>404</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>143</v>
+        <v>427</v>
       </c>
       <c r="M28" s="0">
         <v>0.33100000000000002</v>
@@ -7343,19 +8195,19 @@
         <v>0.74177099999999996</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>92</v>
+        <v>376</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>121</v>
+        <v>405</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>138</v>
+        <v>422</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>144</v>
+        <v>428</v>
       </c>
       <c r="M29" s="0">
         <v>0.19400000000000001</v>
@@ -7446,16 +8298,16 @@
       </c>
       <c r="H30" s="0"/>
       <c r="I30" s="0" t="s">
-        <v>122</v>
+        <v>406</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>138</v>
+        <v>422</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>144</v>
+        <v>428</v>
       </c>
       <c r="M30" s="0">
         <v>0.193</v>
@@ -7546,16 +8398,16 @@
       </c>
       <c r="H31" s="0"/>
       <c r="I31" s="0" t="s">
-        <v>123</v>
+        <v>407</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>138</v>
+        <v>422</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>144</v>
+        <v>428</v>
       </c>
       <c r="M31" s="0">
         <v>0.20100000000000001</v>
@@ -7646,16 +8498,16 @@
       </c>
       <c r="H32" s="0"/>
       <c r="I32" s="0" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>138</v>
+        <v>422</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>144</v>
+        <v>428</v>
       </c>
       <c r="M32" s="0">
         <v>0.19400000000000001</v>
@@ -7746,16 +8598,16 @@
       </c>
       <c r="H33" s="0"/>
       <c r="I33" s="0" t="s">
-        <v>125</v>
+        <v>409</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>138</v>
+        <v>422</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>144</v>
+        <v>428</v>
       </c>
       <c r="M33" s="0">
         <v>0.20200000000000001</v>
@@ -7845,19 +8697,19 @@
         <v>0.58975999999999995</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>92</v>
+        <v>376</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>126</v>
+        <v>410</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>133</v>
+        <v>417</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>139</v>
+        <v>423</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>145</v>
+        <v>429</v>
       </c>
       <c r="M34" s="0">
         <v>0.14099999999999999</v>
@@ -7948,16 +8800,16 @@
       </c>
       <c r="H35" s="0"/>
       <c r="I35" s="0" t="s">
-        <v>127</v>
+        <v>411</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>133</v>
+        <v>417</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>139</v>
+        <v>423</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>145</v>
+        <v>429</v>
       </c>
       <c r="M35" s="0">
         <v>0.159</v>
@@ -8035,19 +8887,19 @@
   <dimension ref="A1:AH35"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.046875" customWidth="true"/>
-    <col min="2" max="2" width="11.93359375" customWidth="true"/>
-    <col min="3" max="3" width="7.37890625" customWidth="true"/>
-    <col min="4" max="4" width="14.046875" customWidth="true"/>
+    <col min="1" max="1" width="5.5703125" customWidth="true"/>
+    <col min="2" max="2" width="12.85546875" customWidth="true"/>
+    <col min="3" max="3" width="8" customWidth="true"/>
+    <col min="4" max="4" width="15.140625" customWidth="true"/>
     <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.37890625" customWidth="true"/>
-    <col min="8" max="8" width="11.6015625" customWidth="true"/>
-    <col min="9" max="9" width="15.48828125" customWidth="true"/>
-    <col min="10" max="10" width="16.93359375" customWidth="true"/>
-    <col min="11" max="11" width="16.93359375" customWidth="true"/>
-    <col min="12" max="12" width="13.046875" customWidth="true"/>
-    <col min="13" max="13" width="13.37890625" customWidth="true"/>
+    <col min="6" max="6" width="7" customWidth="true"/>
+    <col min="7" max="7" width="11.28515625" customWidth="true"/>
+    <col min="8" max="8" width="12.42578125" customWidth="true"/>
+    <col min="9" max="9" width="16.28515625" customWidth="true"/>
+    <col min="10" max="10" width="18.5703125" customWidth="true"/>
+    <col min="11" max="11" width="18.5703125" customWidth="true"/>
+    <col min="12" max="12" width="13.42578125" customWidth="true"/>
+    <col min="13" max="13" width="14.5703125" customWidth="true"/>
     <col min="14" max="14" width="8.7109375" customWidth="true"/>
     <col min="15" max="15" width="10.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
@@ -8073,106 +8925,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>168</v>
+        <v>452</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>169</v>
+        <v>453</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>170</v>
+        <v>454</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>171</v>
+        <v>455</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>172</v>
+        <v>456</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>173</v>
+        <v>457</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>174</v>
+        <v>458</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>175</v>
+        <v>459</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>177</v>
+        <v>461</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>212</v>
+        <v>496</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>218</v>
+        <v>502</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>224</v>
+        <v>508</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>230</v>
+        <v>514</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>231</v>
+        <v>515</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>232</v>
+        <v>516</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>233</v>
+        <v>517</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>234</v>
+        <v>518</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>235</v>
+        <v>519</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>236</v>
+        <v>520</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>237</v>
+        <v>521</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>238</v>
+        <v>522</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>239</v>
+        <v>523</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>240</v>
+        <v>524</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>241</v>
+        <v>525</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>242</v>
+        <v>526</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>243</v>
+        <v>527</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>244</v>
+        <v>528</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>245</v>
+        <v>529</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>246</v>
+        <v>530</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>247</v>
+        <v>531</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>248</v>
+        <v>532</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>249</v>
+        <v>533</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>250</v>
+        <v>534</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>251</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2">
@@ -8196,19 +9048,19 @@
         <v>0.76763599999999999</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>176</v>
+        <v>460</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>178</v>
+        <v>462</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>213</v>
+        <v>497</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>219</v>
+        <v>503</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>225</v>
+        <v>509</v>
       </c>
       <c r="M2" s="0">
         <v>0.318</v>
@@ -8299,16 +9151,16 @@
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0" t="s">
-        <v>179</v>
+        <v>463</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>213</v>
+        <v>497</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>219</v>
+        <v>503</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>225</v>
+        <v>509</v>
       </c>
       <c r="M3" s="0">
         <v>0.32000000000000001</v>
@@ -8399,16 +9251,16 @@
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0" t="s">
-        <v>180</v>
+        <v>464</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>213</v>
+        <v>497</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>219</v>
+        <v>503</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>225</v>
+        <v>509</v>
       </c>
       <c r="M4" s="0">
         <v>0.32100000000000001</v>
@@ -8499,16 +9351,16 @@
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0" t="s">
-        <v>181</v>
+        <v>465</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>213</v>
+        <v>497</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>219</v>
+        <v>503</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>225</v>
+        <v>509</v>
       </c>
       <c r="M5" s="0">
         <v>0.32900000000000001</v>
@@ -8599,16 +9451,16 @@
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0" t="s">
-        <v>182</v>
+        <v>466</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>213</v>
+        <v>497</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>219</v>
+        <v>503</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>225</v>
+        <v>509</v>
       </c>
       <c r="M6" s="0">
         <v>0.33600000000000002</v>
@@ -8699,16 +9551,16 @@
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0" t="s">
-        <v>183</v>
+        <v>467</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>213</v>
+        <v>497</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>219</v>
+        <v>503</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>225</v>
+        <v>509</v>
       </c>
       <c r="M7" s="0">
         <v>0.33200000000000002</v>
@@ -8798,19 +9650,19 @@
         <v>0.63111200000000001</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>176</v>
+        <v>460</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>184</v>
+        <v>468</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>214</v>
+        <v>498</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>220</v>
+        <v>504</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>226</v>
+        <v>510</v>
       </c>
       <c r="M8" s="0">
         <v>0.27800000000000002</v>
@@ -8901,16 +9753,16 @@
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="0" t="s">
-        <v>185</v>
+        <v>469</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>214</v>
+        <v>498</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>220</v>
+        <v>504</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>226</v>
+        <v>510</v>
       </c>
       <c r="M9" s="0">
         <v>0.27900000000000003</v>
@@ -9001,16 +9853,16 @@
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0" t="s">
-        <v>186</v>
+        <v>470</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>214</v>
+        <v>498</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>220</v>
+        <v>504</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>226</v>
+        <v>510</v>
       </c>
       <c r="M10" s="0">
         <v>0.29699999999999999</v>
@@ -9101,16 +9953,16 @@
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0" t="s">
-        <v>187</v>
+        <v>471</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>214</v>
+        <v>498</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>220</v>
+        <v>504</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>226</v>
+        <v>510</v>
       </c>
       <c r="M11" s="0">
         <v>0.254</v>
@@ -9201,16 +10053,16 @@
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0" t="s">
-        <v>188</v>
+        <v>472</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>214</v>
+        <v>498</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>220</v>
+        <v>504</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>226</v>
+        <v>510</v>
       </c>
       <c r="M12" s="0">
         <v>0.28399999999999997</v>
@@ -9301,16 +10153,16 @@
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0" t="s">
-        <v>189</v>
+        <v>473</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>214</v>
+        <v>498</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>220</v>
+        <v>504</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>226</v>
+        <v>510</v>
       </c>
       <c r="M13" s="0">
         <v>0.29199999999999998</v>
@@ -9401,16 +10253,16 @@
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0" t="s">
-        <v>190</v>
+        <v>474</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>214</v>
+        <v>498</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>220</v>
+        <v>504</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>226</v>
+        <v>510</v>
       </c>
       <c r="M14" s="0">
         <v>0.25900000000000001</v>
@@ -9501,16 +10353,16 @@
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0" t="s">
-        <v>191</v>
+        <v>475</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>214</v>
+        <v>498</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>220</v>
+        <v>504</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>226</v>
+        <v>510</v>
       </c>
       <c r="M15" s="0">
         <v>0.33600000000000002</v>
@@ -9601,16 +10453,16 @@
       </c>
       <c r="H16" s="0"/>
       <c r="I16" s="0" t="s">
-        <v>192</v>
+        <v>476</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>214</v>
+        <v>498</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>220</v>
+        <v>504</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>226</v>
+        <v>510</v>
       </c>
       <c r="M16" s="0">
         <v>0.28499999999999998</v>
@@ -9701,16 +10553,16 @@
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0" t="s">
-        <v>193</v>
+        <v>477</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>214</v>
+        <v>498</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>220</v>
+        <v>504</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>226</v>
+        <v>510</v>
       </c>
       <c r="M17" s="0">
         <v>0.28599999999999998</v>
@@ -9801,16 +10653,16 @@
       </c>
       <c r="H18" s="0"/>
       <c r="I18" s="0" t="s">
-        <v>194</v>
+        <v>478</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>214</v>
+        <v>498</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>220</v>
+        <v>504</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>226</v>
+        <v>510</v>
       </c>
       <c r="M18" s="0">
         <v>0.27800000000000002</v>
@@ -9900,19 +10752,19 @@
         <v>0.63627999999999996</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>176</v>
+        <v>460</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>195</v>
+        <v>479</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>215</v>
+        <v>499</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>221</v>
+        <v>505</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>227</v>
+        <v>511</v>
       </c>
       <c r="M19" s="0">
         <v>0.35599999999999998</v>
@@ -10003,16 +10855,16 @@
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0" t="s">
-        <v>196</v>
+        <v>480</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>215</v>
+        <v>499</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>221</v>
+        <v>505</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>227</v>
+        <v>511</v>
       </c>
       <c r="M20" s="0">
         <v>0.34699999999999998</v>
@@ -10103,16 +10955,16 @@
       </c>
       <c r="H21" s="0"/>
       <c r="I21" s="0" t="s">
-        <v>197</v>
+        <v>481</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>215</v>
+        <v>499</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>221</v>
+        <v>505</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>227</v>
+        <v>511</v>
       </c>
       <c r="M21" s="0">
         <v>0.42199999999999999</v>
@@ -10203,16 +11055,16 @@
       </c>
       <c r="H22" s="0"/>
       <c r="I22" s="0" t="s">
-        <v>198</v>
+        <v>482</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>215</v>
+        <v>499</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>221</v>
+        <v>505</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>227</v>
+        <v>511</v>
       </c>
       <c r="M22" s="0">
         <v>0.35299999999999998</v>
@@ -10303,16 +11155,16 @@
       </c>
       <c r="H23" s="0"/>
       <c r="I23" s="0" t="s">
-        <v>199</v>
+        <v>483</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>215</v>
+        <v>499</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>221</v>
+        <v>505</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>227</v>
+        <v>511</v>
       </c>
       <c r="M23" s="0">
         <v>0.34399999999999997</v>
@@ -10403,16 +11255,16 @@
       </c>
       <c r="H24" s="0"/>
       <c r="I24" s="0" t="s">
-        <v>200</v>
+        <v>484</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>215</v>
+        <v>499</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>221</v>
+        <v>505</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>227</v>
+        <v>511</v>
       </c>
       <c r="M24" s="0">
         <v>0.36599999999999999</v>
@@ -10503,16 +11355,16 @@
       </c>
       <c r="H25" s="0"/>
       <c r="I25" s="0" t="s">
-        <v>201</v>
+        <v>485</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>215</v>
+        <v>499</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>221</v>
+        <v>505</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>227</v>
+        <v>511</v>
       </c>
       <c r="M25" s="0">
         <v>0.40799999999999997</v>
@@ -10603,16 +11455,16 @@
       </c>
       <c r="H26" s="0"/>
       <c r="I26" s="0" t="s">
-        <v>202</v>
+        <v>486</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>215</v>
+        <v>499</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>221</v>
+        <v>505</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>227</v>
+        <v>511</v>
       </c>
       <c r="M26" s="0">
         <v>0.39100000000000001</v>
@@ -10703,16 +11555,16 @@
       </c>
       <c r="H27" s="0"/>
       <c r="I27" s="0" t="s">
-        <v>203</v>
+        <v>487</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>215</v>
+        <v>499</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>221</v>
+        <v>505</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>227</v>
+        <v>511</v>
       </c>
       <c r="M27" s="0">
         <v>0.33600000000000002</v>
@@ -10803,16 +11655,16 @@
       </c>
       <c r="H28" s="0"/>
       <c r="I28" s="0" t="s">
-        <v>204</v>
+        <v>488</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>215</v>
+        <v>499</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>221</v>
+        <v>505</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>227</v>
+        <v>511</v>
       </c>
       <c r="M28" s="0">
         <v>0.33100000000000002</v>
@@ -10902,19 +11754,19 @@
         <v>0.74177099999999996</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>176</v>
+        <v>460</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>205</v>
+        <v>489</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>216</v>
+        <v>500</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>222</v>
+        <v>506</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>228</v>
+        <v>512</v>
       </c>
       <c r="M29" s="0">
         <v>0.19400000000000001</v>
@@ -11005,16 +11857,16 @@
       </c>
       <c r="H30" s="0"/>
       <c r="I30" s="0" t="s">
-        <v>206</v>
+        <v>490</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>216</v>
+        <v>500</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>222</v>
+        <v>506</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>228</v>
+        <v>512</v>
       </c>
       <c r="M30" s="0">
         <v>0.193</v>
@@ -11105,16 +11957,16 @@
       </c>
       <c r="H31" s="0"/>
       <c r="I31" s="0" t="s">
-        <v>207</v>
+        <v>491</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>216</v>
+        <v>500</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>222</v>
+        <v>506</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>228</v>
+        <v>512</v>
       </c>
       <c r="M31" s="0">
         <v>0.20100000000000001</v>
@@ -11205,16 +12057,16 @@
       </c>
       <c r="H32" s="0"/>
       <c r="I32" s="0" t="s">
-        <v>208</v>
+        <v>492</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>216</v>
+        <v>500</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>222</v>
+        <v>506</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>228</v>
+        <v>512</v>
       </c>
       <c r="M32" s="0">
         <v>0.19400000000000001</v>
@@ -11305,16 +12157,16 @@
       </c>
       <c r="H33" s="0"/>
       <c r="I33" s="0" t="s">
-        <v>209</v>
+        <v>493</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>216</v>
+        <v>500</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>222</v>
+        <v>506</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>228</v>
+        <v>512</v>
       </c>
       <c r="M33" s="0">
         <v>0.20200000000000001</v>
@@ -11404,19 +12256,19 @@
         <v>0.58975999999999995</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>176</v>
+        <v>460</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>210</v>
+        <v>494</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>217</v>
+        <v>501</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>223</v>
+        <v>507</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>229</v>
+        <v>513</v>
       </c>
       <c r="M34" s="0">
         <v>0.14099999999999999</v>
@@ -11507,16 +12359,16 @@
       </c>
       <c r="H35" s="0"/>
       <c r="I35" s="0" t="s">
-        <v>211</v>
+        <v>495</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>217</v>
+        <v>501</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>223</v>
+        <v>507</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>229</v>
+        <v>513</v>
       </c>
       <c r="M35" s="0">
         <v>0.159</v>
@@ -11594,9 +12446,9 @@
   <dimension ref="A1:V6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.93359375" customWidth="true"/>
-    <col min="2" max="2" width="16.93359375" customWidth="true"/>
-    <col min="3" max="3" width="13.046875" customWidth="true"/>
+    <col min="1" max="1" width="3" customWidth="true"/>
+    <col min="2" max="2" width="18.5703125" customWidth="true"/>
+    <col min="3" max="3" width="13.42578125" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
@@ -11620,70 +12472,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>252</v>
+        <v>536</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>253</v>
+        <v>537</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>259</v>
+        <v>543</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>265</v>
+        <v>549</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>266</v>
+        <v>550</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>267</v>
+        <v>551</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>268</v>
+        <v>552</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>269</v>
+        <v>553</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>270</v>
+        <v>554</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>271</v>
+        <v>555</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>272</v>
+        <v>556</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>273</v>
+        <v>557</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>274</v>
+        <v>558</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>275</v>
+        <v>559</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>276</v>
+        <v>560</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>277</v>
+        <v>561</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>278</v>
+        <v>562</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>279</v>
+        <v>563</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>280</v>
+        <v>564</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>281</v>
+        <v>565</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>282</v>
+        <v>566</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>283</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2">
@@ -11691,10 +12543,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>254</v>
+        <v>538</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>260</v>
+        <v>544</v>
       </c>
       <c r="D2" s="0">
         <v>42663197.417049594</v>
@@ -11759,10 +12611,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>255</v>
+        <v>539</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>261</v>
+        <v>545</v>
       </c>
       <c r="D3" s="0">
         <v>4527838.4328061389</v>
@@ -11827,10 +12679,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>256</v>
+        <v>540</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>262</v>
+        <v>546</v>
       </c>
       <c r="D4" s="0">
         <v>176922.73970340472</v>
@@ -11895,10 +12747,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>257</v>
+        <v>541</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>263</v>
+        <v>547</v>
       </c>
       <c r="D5" s="0">
         <v>1517672.8032363739</v>
@@ -11963,10 +12815,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>258</v>
+        <v>542</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>264</v>
+        <v>548</v>
       </c>
       <c r="D6" s="0">
         <v>130078.66741787846</v>
